--- a/PCB/OctoSlime_Base_Unit_Light/PickAndPlace.xlsx
+++ b/PCB/OctoSlime_Base_Unit_Light/PickAndPlace.xlsx
@@ -1042,7 +1042,7 @@
     <t>1798mil</t>
   </si>
   <si>
-    <t>0805W8F1501T5E_1.5kΩ</t>
+    <t>1.5kΩ</t>
   </si>
   <si>
     <t>C2</t>
@@ -1114,7 +1114,7 @@
     <t>1370.9mil</t>
   </si>
   <si>
-    <t>0805W8F3601T5E_3.6kΩ</t>
+    <t>3.6kΩ</t>
   </si>
   <si>
     <t>U11</t>
